--- a/jd/中间件故障风险分析.xlsx
+++ b/jd/中间件故障风险分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangjizhou/work/project/ansible/jd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD682072-85CD-6A41-9CCD-F33B50606F10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1721CC3-F512-2B4F-BC75-452EF424FE2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="33600" windowHeight="19640" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="8" r:id="rId1"/>
@@ -22,13 +22,15 @@
     <sheet name="ELK故障影响" sheetId="12" r:id="rId7"/>
     <sheet name="ZK故障影响" sheetId="14" r:id="rId8"/>
     <sheet name="存储双活故障" sheetId="15" r:id="rId9"/>
+    <sheet name="业务DC故障" sheetId="16" r:id="rId10"/>
+    <sheet name="应用测试" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="180">
   <si>
     <t>文档名称</t>
   </si>
@@ -64,252 +66,683 @@
   </si>
   <si>
     <t>k8s节点调度策略：</t>
+  </si>
+  <si>
+    <t>针对现有集群可能存在如下异常场景：</t>
+  </si>
+  <si>
+    <t>故障类型</t>
+  </si>
+  <si>
+    <t>集群影响</t>
+  </si>
+  <si>
+    <t>应用影响（SPC、AMS等）</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>单个Master故障</t>
+  </si>
+  <si>
+    <t>节点故障：广义的故障，网络不可达、操作系统宕机、VM所在物理机故障、OS故障等，最终效果都是集群检查到当前节点状态异常</t>
+  </si>
+  <si>
+    <t>2+个Master故障</t>
+  </si>
+  <si>
+    <t>Redis部署架构如下：</t>
+  </si>
+  <si>
+    <t>Redis服务器调度策略：</t>
+  </si>
+  <si>
+    <t>1.物理机故障VM可在双机房自由HA；2.同一个集群内的Redis节点不调度到同一台物理机</t>
+  </si>
+  <si>
+    <t>节点故障：广义的故障，网络不可达、操作系统宕机、VM所在物理机故障、OS故障等，最终效果都是Redis集群检查到当前节点状态异常</t>
+  </si>
+  <si>
+    <t>任意多个Slave故障</t>
+  </si>
+  <si>
+    <t>同一组Master&amp;Slave故障</t>
+  </si>
+  <si>
+    <t>redis内存达到上限</t>
+  </si>
+  <si>
+    <t>持久化盘故障</t>
+  </si>
+  <si>
+    <t>Roketmq部署架构如下：</t>
+  </si>
+  <si>
+    <t>RocketMQ服务器调度策略：</t>
+  </si>
+  <si>
+    <t>1.物理机故障VM可在自己所在的机房任意HA；2.所有RocketMQ的VM都不会部署到同一台物理机</t>
+  </si>
+  <si>
+    <t>2个NameServer故障</t>
+  </si>
+  <si>
+    <t>同机房NameServer&amp;Master&amp;Slave故障</t>
+  </si>
+  <si>
+    <t>两个MasterNode故障</t>
+  </si>
+  <si>
+    <t>Nginx部署架构如下：</t>
+  </si>
+  <si>
+    <t>Nginx服务器调度策略：</t>
+  </si>
+  <si>
+    <t>1.物理机故障VM可在自己所在的机房任意HA</t>
+  </si>
+  <si>
+    <t>针对现有架构可能存在如下异常场景：</t>
+  </si>
+  <si>
+    <t>主Nginx故障</t>
+  </si>
+  <si>
+    <t>从Nginx故障</t>
+  </si>
+  <si>
+    <t>Nginx同时故障</t>
+  </si>
+  <si>
+    <t>Ravencast部署架构如下：</t>
+  </si>
+  <si>
+    <t>Ravencast服务器调度策略：</t>
+  </si>
+  <si>
+    <t>Ravencast单节点故障</t>
+  </si>
+  <si>
+    <t>VM宕机：Ravencast虚拟自动迁移到其他服务器，迁移成功后Ravencast恢复服务
+进程/网络等故障：等待故障恢复，Ravencast服务自动恢复</t>
+  </si>
+  <si>
+    <t>ELK部署架构如下：</t>
+  </si>
+  <si>
+    <t>ES服务器调度策略：</t>
+  </si>
+  <si>
+    <t>1.物理机故障kafka/es节点的vm可在所有物理机之间任意HA；2.kibana+logstash服务根据K8S调度策略调度</t>
+  </si>
+  <si>
+    <t>中间件影响</t>
+  </si>
+  <si>
+    <t>filebeat故障</t>
+  </si>
+  <si>
+    <t>kafka单节点故障</t>
+  </si>
+  <si>
+    <t>无影响</t>
+  </si>
+  <si>
+    <t>kafka 2+个节点故障</t>
+  </si>
+  <si>
+    <t>logstash任意个节点故障</t>
+  </si>
+  <si>
+    <t>logstash全部故障</t>
+  </si>
+  <si>
+    <t>日志不能存到ES，新日志达到1.6T/故障超过7天，会造成日志丢失</t>
+  </si>
+  <si>
+    <t>ES故障</t>
+  </si>
+  <si>
+    <t>kibana故障</t>
+  </si>
+  <si>
+    <t>ZK部署架构如下：</t>
+  </si>
+  <si>
+    <t>ZK服务器调度策略：</t>
   </si>
   <si>
     <t>1.物理机故障K8S Master1可以在DC1的任意物理机HA；2.物理机故障K8S Master3可以在DC2的任意物理机HA；
 3.物理机故障K8S Master2可以在DC1和DC2的任意物理机HA</t>
-  </si>
-  <si>
-    <t>针对现有集群可能存在如下异常场景：</t>
-  </si>
-  <si>
-    <t>故障类型</t>
-  </si>
-  <si>
-    <t>集群影响</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期影响范围</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>应用影响（SPC、AMS等）</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>单个Master故障</t>
-  </si>
-  <si>
-    <t>集群无影响</t>
-  </si>
-  <si>
-    <t>节点故障：广义的故障，网络不可达、操作系统宕机、VM所在物理机故障、OS故障等，最终效果都是集群检查到当前节点状态异常</t>
-  </si>
-  <si>
-    <t>2+个Master故障</t>
-  </si>
-  <si>
-    <t>集群不可调度，现有业务不受影响（物理机故障导致节点故障时，资源充足的情况下约3分钟Master自动在其他服务器启动）</t>
-  </si>
-  <si>
-    <t>任意Worker节点故障</t>
-  </si>
-  <si>
-    <t>集群无影响，Worker上的POD会在42S之后往其他节点迁移</t>
-  </si>
-  <si>
-    <t>Redis部署架构如下：</t>
-  </si>
-  <si>
-    <t>Redis服务器调度策略：</t>
-  </si>
-  <si>
-    <t>1.物理机故障VM可在双机房自由HA；2.同一个集群内的Redis节点不调度到同一台物理机</t>
-  </si>
-  <si>
-    <t>节点故障：广义的故障，网络不可达、操作系统宕机、VM所在物理机故障、OS故障等，最终效果都是Redis集群检查到当前节点状态异常</t>
-  </si>
-  <si>
-    <t>集群不可用（物理机故障导致节点故障时，资源充足的情况下约3分钟Master自动在其他服务器启动）</t>
-  </si>
-  <si>
-    <t>任意多个Slave故障</t>
-  </si>
-  <si>
-    <t>同一组Master&amp;Slave故障</t>
-  </si>
-  <si>
-    <t>redis内存达到上限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.公共集群内存上限为72GB(3*32*3/4);
-2.故障发生时集群只读，不能继续写入；
-3.现有集群淘汰算法为volatile-lru，对设置了过期策略的key使用LRU算法
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无影响</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控系统告警</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理机故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点NotReady
+故障节点上的POD异常
+出现少数请求出现错误
+POD最长42s后迁移到正常节点启动恢复
+节点3分钟后迁移到其他物理机恢复</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点上的POD在42s后迁移到正常节点启动恢复
+最长在42s时间窗口内出现请求异常</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群状态正常</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群无法部署和调度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群不可用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前stop-writes-on-bgsave-error为yes，集群状态只读</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群只读</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>非同组Master&amp;Slave故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务无法部署、更新、扩容缩容
+存量业务POD正常可用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个NameServer故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">集群状态正常（淘汰算法为allkeys-lru）
 </t>
-  </si>
-  <si>
-    <t>持久化盘故障</t>
-  </si>
-  <si>
-    <t>当前stop-writes-on-bgsave-error为yes，磁盘故障，rdb持久化异常，redis集群变为只读模式</t>
-  </si>
-  <si>
-    <t>Roketmq部署架构如下：</t>
-  </si>
-  <si>
-    <t>RocketMQ服务器调度策略：</t>
-  </si>
-  <si>
-    <t>1.物理机故障VM可在自己所在的机房任意HA；2.所有RocketMQ的VM都不会部署到同一台物理机</t>
-  </si>
-  <si>
-    <t>单个NameServer故障</t>
-  </si>
-  <si>
-    <t>2个NameServer故障</t>
-  </si>
-  <si>
-    <t>集群不可访问（物理机故障导致节点故障时，资源充足的情况下约3分钟NameServer自动在其他服务器启动）</t>
-  </si>
-  <si>
-    <t>集群可以继续读写，TPS减半，但是写入宕机组里的消息需要等到宕机的slave/master启动之后才能继续消费</t>
-  </si>
-  <si>
-    <t>同机房NameServer&amp;Master&amp;Slave故障</t>
-  </si>
-  <si>
-    <t>集群正常运行，TPS减半</t>
-  </si>
-  <si>
-    <t>两个MasterNode故障</t>
-  </si>
-  <si>
-    <t>集群不能写入新消息，已有消息可以继续消费</t>
-  </si>
-  <si>
-    <t>存储故障</t>
-  </si>
-  <si>
-    <t>集群不可用</t>
-  </si>
-  <si>
-    <t>Nginx部署架构如下：</t>
-  </si>
-  <si>
-    <t>Nginx服务器调度策略：</t>
-  </si>
-  <si>
-    <t>1.物理机故障VM可在自己所在的机房任意HA</t>
-  </si>
-  <si>
-    <t>针对现有架构可能存在如下异常场景：</t>
-  </si>
-  <si>
-    <t>主Nginx故障</t>
-  </si>
-  <si>
-    <t>VM宕机：Nginx虚拟自动迁移到其他服务器，VIP在2s内迁移到备机
-进程/网络等故障：VIP在2s内迁移到备机</t>
-  </si>
-  <si>
-    <t>从Nginx故障</t>
-  </si>
-  <si>
-    <t>Nginx主备无影响</t>
-  </si>
-  <si>
-    <t>Nginx同时故障</t>
-  </si>
-  <si>
-    <t>VM宕机：Nginx虚拟自动迁移到其他服务器，迁移成功后Nginx恢复服务
-进程/网络等故障：等待故障恢复，Nginx服务自动恢复</t>
-  </si>
-  <si>
-    <t>Ravencast部署架构如下：</t>
-  </si>
-  <si>
-    <t>Ravencast服务器调度策略：</t>
-  </si>
-  <si>
-    <t>Ravencast单节点故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群状态正常，TPS减半
+已写入宕机组里的消息需待宕机的slave/master恢复后才能继续消费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">集群不可用
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用正常读写</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用无法写入数据，或导致应用故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群吞吐量降低
+应用正常读写，大量并发下或延迟增加</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用无法写入新消息
+或应用故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单DC故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点NotReady
+服务或无法部署、更新、扩容缩容
+节点上的POD在42s后迁移到正常节点启动恢复
+最长在42s时间窗口内出现请求异常</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群状态依赖Master拓扑
+1.DC占多数Master节点，则故障
+2.DC占少数Master节点，则正常</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群或故障
+集群故障将导致应用故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群吞吐量降低
+已写入故障节点的消息无法被消费
+新消息正常写入和读取
+大量并发下或延迟增加</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP在1s后漂移到从Nginx节点</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nginx不可用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过Nginx的业务均不可用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ravencast全节点故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>VM宕机：Ravencast虚拟自动迁移到其他服务器，启动成功后继续提供服务
 进程/网络等故障：业务Session全部切换到另一个节点，继续提供服务</t>
-  </si>
-  <si>
-    <t>Ravencast节点同时故障</t>
-  </si>
-  <si>
-    <t>VM宕机：Ravencast虚拟自动迁移到其他服务器，迁移成功后Ravencast恢复服务
-进程/网络等故障：等待故障恢复，Ravencast服务自动恢复</t>
-  </si>
-  <si>
-    <t>ELK部署架构如下：</t>
-  </si>
-  <si>
-    <t>ES服务器调度策略：</t>
-  </si>
-  <si>
-    <t>1.物理机故障kafka/es节点的vm可在所有物理机之间任意HA；2.kibana+logstash服务根据K8S调度策略调度</t>
-  </si>
-  <si>
-    <t>中间件影响</t>
-  </si>
-  <si>
-    <t>filebeat故障</t>
-  </si>
-  <si>
-    <t>filebeat自动重启，重启成功可继续手机日志</t>
-  </si>
-  <si>
-    <t>kafka单节点故障</t>
-  </si>
-  <si>
-    <t>无影响</t>
-  </si>
-  <si>
-    <t>kafka 2+个节点故障</t>
-  </si>
-  <si>
-    <t>Kafka不可用，新日志无法收集到Kafka，单服务新日志超过1G后，会造成日志丢失</t>
-  </si>
-  <si>
-    <t>logstash任意个节点故障</t>
-  </si>
-  <si>
-    <t>无影响，K8S自动调度到新节点启动</t>
-  </si>
-  <si>
-    <t>logstash全部故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka不可用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志无法收集到ES</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志无法收集到ES
+日志超过kafka容量上限或故障超过7天，日志将会丢失</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>日志不能存到ES，新日志达到1.6T/故障超过7天，会造成日志丢失</t>
-  </si>
-  <si>
-    <t>ES故障</t>
-  </si>
-  <si>
-    <t>集群运行正常：无影响
-集群故障：日志不能存到ES，新日志达到1.6T/故障超过7天，会造成日志丢失</t>
-  </si>
-  <si>
-    <t>kibana故障</t>
-  </si>
-  <si>
-    <t>日志收集无影响，不能通过页面查看日志。K8S自动调度到其他节点重启kibana服务</t>
-  </si>
-  <si>
-    <t>ZK部署架构如下：</t>
-  </si>
-  <si>
-    <t>ZK服务器调度策略：</t>
-  </si>
-  <si>
-    <t>1.细化故障点---&gt;可靠性测试用例</t>
-  </si>
-  <si>
-    <t>null:</t>
-  </si>
-  <si>
-    <t>可靠性测试用例+告警监控表现</t>
-  </si>
-  <si>
-    <t>2. 检查已部署应用日志，异常日志转发应用责任人处理</t>
-  </si>
-  <si>
-    <t>3.应用优雅停机测试</t>
-  </si>
-  <si>
-    <t>4.双dc测试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无影响
+K8S自动调度到新节点启动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>filebeat故障重启
+重启成功可继续收集日志</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障节点POD的日志短暂延后收集
+当容器日志自故障时间开始超过5G，将会出现丢失</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志无法收集到ES
+当容器日志自故障时间开始超过5G，将会出现丢失</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志收集无影响
+自动重启即可恢复</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法通过界面查询日志
+不会丢失日志数据</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC内所有节点故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理机上所有节点故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个Master故障</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>断网</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>下电</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>可测故障类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点维护</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点POD发生迁移</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>POD迁移到正常节点
+POD迁移过程业务不中断</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意Worker节点故障，关机，重启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点故障类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存上限</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>待周华补充</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>POD重启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka节点关闭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>filebeat</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据丢失</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程重启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理机关机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理机重启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理机断网</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理机下电</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理机维护</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据损坏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主从切换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群发生主从切换
+应用可正常读写</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启节点nginx进程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启节点keepalived进程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点kubelet进程重启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点docker进程重启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启节点redis进程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭节点rocketmq进程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP发生漂移
+VIP漂移过程或应用请求出错</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单存储掉电</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单存储断网</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单存储重启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储不同步</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rocketmq</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ravencast</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力测试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用监控</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>spc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当master多的dc故障：应用无法调度升级
+当master少的dc故障：应用正常调度升级
+应用在秒级时间内有请求出现错误</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8s集群或无法调度、部署、更新（2 master的DC故障则无法调度）
+对应DC所有k8s集群worker故障
+对应DC所有pod无法提供服务，提供服务的POD减少一半</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群短暂时间不可用
+VM节点发生dc漂移</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>或发生故障，无法读写
+或发生数据丢失
+一个master发生dc漂移
+发生主从切换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当master多的dc故障：redis故障无法读写
+当master少的dc故障：redis正常读写
+redis存在数据丢失风险
+一个master节点VM发生跨dc漂移
+一个slave节点晋升为master节点</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群状态正常可读写</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>rocketmq nameserver/master/slave减半
+TPS减半</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群或重新选举master
+集群数据节点减半
+集群正常读写</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群分钟级不可用
+VM节点发生dc漂移</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当master所在dc故障：重新选举master节点
+集群数据节点减半，无法实现数据备份
+集群正常读写</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用不停机扩容缩容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用不停机升级/回滚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主备切换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>rms</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM下电</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM断网</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM重启</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM关机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>可测节点故障类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>K8S集群</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nginx</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主备发生切换
+切换过程存在少量请求出错，秒级恢复</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harbor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主备发生切换，秒级恢复
+镜像拉取秒级延迟，不影响业务</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -317,9 +750,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +805,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -383,8 +824,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,8 +870,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -484,16 +957,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,7 +1029,43 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,6 +1074,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -561,7 +1084,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -572,7 +1095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -582,6 +1105,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1969,12 +2534,12 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
@@ -2012,17 +2577,1631 @@
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCBABCD-BE44-1B4D-99C0-DF7F6289D660}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75">
+      <c r="A3" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="18"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="18"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="18"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="18"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="18"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="18"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0783FC68-41DF-6A4A-ACE1-6908C4499ED4}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="5" max="5" width="50.5" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="34" customHeight="1">
+      <c r="A25" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="63" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="27" spans="1:9" ht="76" customHeight="1">
+      <c r="A27" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="41"/>
+    </row>
+    <row r="28" spans="1:9" ht="75">
+      <c r="A28" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="41"/>
+    </row>
+    <row r="29" spans="1:9" ht="60">
+      <c r="A29" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="41"/>
+    </row>
+    <row r="30" spans="1:9" ht="30">
+      <c r="A30" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="42"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="46"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="47"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="G25:G30"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.1640625" customWidth="1"/>
+    <col min="6" max="7" width="34.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15">
+      <c r="A26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="27" spans="1:9" ht="15">
+      <c r="A27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="41"/>
+    </row>
+    <row r="28" spans="1:9" ht="15">
+      <c r="A28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="41"/>
+    </row>
+    <row r="29" spans="1:9" ht="15">
+      <c r="A29" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="41"/>
+    </row>
+    <row r="30" spans="1:9" ht="30">
+      <c r="A30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="41"/>
+    </row>
+    <row r="31" spans="1:9" ht="30">
+      <c r="A31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" spans="1:9" ht="45">
+      <c r="A32" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="41"/>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="42"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="G25:G33"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="3" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15">
+      <c r="A25" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="1:9" ht="45">
+      <c r="A28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" spans="1:9" ht="80" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="39"/>
+    </row>
+    <row r="30" spans="1:9" ht="80" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="39"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="G25:G30"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15">
+      <c r="A26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:9" ht="15">
+      <c r="A27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="G25:G27"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="60">
+      <c r="A25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="60">
+      <c r="A26" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="G25:G26"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15">
+      <c r="A26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:9" ht="30">
+      <c r="A27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:9" ht="30">
+      <c r="A29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:9" ht="45">
+      <c r="A30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:9" ht="30">
+      <c r="A31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="G25:G31"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2035,23 +4214,23 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2"/>
@@ -2065,353 +4244,67 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="34" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="63" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="D25" s="40"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" ht="76" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D25:D27"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45">
-      <c r="A26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="25"/>
+      <c r="D26" s="41"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" ht="45">
-      <c r="A28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="1:9" ht="80" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" ht="45">
-      <c r="A30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D25:D30"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45">
-      <c r="A26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" ht="45">
-      <c r="A28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="1:9" ht="80" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" ht="80" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="1:9" ht="15">
-      <c r="A31" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="41"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="41"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="41"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="41"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="26"/>
+      <c r="D31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2419,499 +4312,7 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D25:D31"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="45">
-      <c r="A25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15">
-      <c r="A26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:9" ht="60">
-      <c r="A27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D25:D27"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="60">
-      <c r="A25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="60">
-      <c r="A26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D25:D26"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15">
-      <c r="A26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="28"/>
-    </row>
-    <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="1:9" ht="45">
-      <c r="A30" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="1:9" ht="30">
-      <c r="A31" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D25:D31"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="28"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D25:D31"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2919,62 +4320,89 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A2:A14"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="6" max="6" width="49.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>